--- a/similarities/split_global/harmonic_similarity_timestamps_178.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_178.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,490 +484,540 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:00:15.216000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_25</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>isophonics_121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
+          <t>['Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['A', 'B', 'E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:43.740000', '0:00:55.620000')]</t>
+          <t>('0:01:03.861000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:07.700000')]</t>
+          <t>('0:00:07.935986', '0:00:12.498707')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=43.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-121#t=7.935986</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_200</t>
+          <t>schubert-winterreise_80</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:23.480000')]</t>
+          <t>('0:00:00.780000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:10.953139', '0:00:19.672232')]</t>
+          <t>('0:00:02.640000', '0:00:07.300000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=10.953139']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=2.64</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'F:7', 'A#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F:7', 'Bb']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:14.380000', '0:01:30.640000')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:21.410000', '0:00:26.860000')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=74.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=21.41']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:49.981485', '0:00:59.292687')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:06.740000', '0:00:12.420000')]</t>
+          <t>('0:00:06.726778', '0:00:13.147096')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=49.981485']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=6.74']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['Bb/3', 'Eb:maj', 'Bb/3']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:12.707687', '0:00:25.501882')]</t>
+          <t>('0:00:37.936167', '0:00:42.951678')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:38.041000', '0:00:42.375000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=12.707687']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=38.041</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_120</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['A#:min', 'F:maj/A', 'A#:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:08.440000', '0:00:17.540000'), ('0:00:19.980000', '0:00:27.180000')]</t>
+          <t>('0:00:02.300000', '0:00:07.040000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:11.240000', '0:00:17.760000'), ('0:00:20.920000', '0:00:26.040000')]</t>
+          <t>('0:00:12.600000', '0:00:17.860000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=8.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-120#t=12.6</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min/5', 'C:min', 'G', 'C:min']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min/5', 'F#:min', 'C#', 'F#:min']]</t>
+          <t>['D:maj/F#', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:22.981000', '0:00:29.373000')]</t>
+          <t>('0:00:31.740000', '0:00:33.880000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:03.048185', '0:00:06.774988')]</t>
+          <t>('0:00:38.620000', '0:00:44.060000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=22.981']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.048185']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=38.62</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_269</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A:min', 'G', 'F']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'F:maj/A', 'D#:maj/G']]</t>
+          <t>['C:min', 'G:7/D', 'C:min/D#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:27.812000', '0:00:30.842000')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:24.620000', '0:00:26.660000')]</t>
+          <t>('0:00:02', '0:00:04.320000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-269#t=27.812']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=24.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_0</t>
+          <t>isophonics_98</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['Eb', 'Bb:7', 'Eb', 'Bb:7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab'], ['Bb:7', 'Eb:7', 'Ab']]</t>
+          <t>['G', 'D:7', 'G', 'D:7']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:09.940000'), ('0:00:55.620000', '0:01:03.080000')]</t>
+          <t>('0:00:58.350000', '0:01:05.970000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:25.220000', '0:00:27.170000'), ('0:00:23.910000', '0:00:25.870000')]</t>
+          <t>('0:00:33.340317', '0:01:01.498839')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=1.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=55.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=58.35</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22', 'https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=23.91']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-98#t=33.340317</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_194</t>
+          <t>schubert-winterreise_67</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj/B', 'C:min'], ['C:min', 'G:7/D', 'C:min/D#']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:00:01.540000', '0:00:06.680000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:13.520000', '0:00:19.080000'), ('0:00:02', '0:00:04.320000')]</t>
+          <t>('0:00:13.180000', '0:00:19.520000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=2.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -976,190 +1026,204 @@
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>['D', 'G', 'D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:09.240000', '0:00:16.260000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:07.523000', '0:00:10.397000')]</t>
+          <t>('0:00:00.279000', '0:00:16.531000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=9.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-252#t=7.523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>schubert-winterreise_210</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['A:7', 'D:maj', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G'], ['C:min/G', 'G', 'C:min'], ['A#:7', 'D#', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:14.100000', '0:01:20.040000'), ('0:00:25.480000', '0:00:32.580000'), ('0:00:12.140000', '0:00:20.020000'), ('0:00:36.340000', '0:00:42.080000'), ('0:00:34.860000', '0:00:39.700000')]</t>
+          <t>('0:00:00.820000', '0:00:44.700000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:20.920000', '0:00:26.040000'), ('0:00:07.300000', '0:00:10.300000'), ('0:00:11.240000', '0:00:17.760000'), ('0:00:31.680000', '0:00:33.780000'), ('0:00:35.860000', '0:00:37.440000')]</t>
+          <t>('0:02:26.520000', '0:02:59.420000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=74.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=12.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=36.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=34.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-64#t=0.82</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=20.92', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=7.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=11.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=31.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=35.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-210#t=146.52</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_184</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['E', 'A:min', 'G', 'F']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:39.201655', '0:00:46.167641')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:25.160000', '0:00:28.660000')]</t>
+          <t>('0:00:02.560000', '0:00:06.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-184#t=39.201655']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=25.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=2.56</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_92</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['F:7', 'Bb:7', 'Eb:7']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F#:7', 'B:7', 'E:7']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+          <t>('0:00:42.100000', '0:00:48.620000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:32.400000', '0:00:44.110000')]</t>
+          <t>('0:00:21.612539', '0:00:26.651269')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=27.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=42.1</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=21.612539</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
